--- a/output1.xlsx
+++ b/output1.xlsx
@@ -1193,7 +1193,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1203,16 +1203,24 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>/</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -1193,32 +1193,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>991</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>991</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>991</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>999</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>999</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>999</t>
         </is>
       </c>
       <c r="J21" s="2"/>
